--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3638323.411559126</v>
+        <v>-3639063.874379849</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406075</v>
+        <v>1462975.848406074</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.82831562288309</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T11" t="n">
         <v>89.18341408247065</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>18.73146881698207</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5213376233409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715467</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>40.99189795560306</v>
@@ -1455,16 +1455,16 @@
         <v>15.72846453192608</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268827</v>
       </c>
       <c r="F12" t="n">
         <v>13.3526113606712</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115014</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.86681544795822</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622701</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027153</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
         <v>94.20712384475011</v>
@@ -1509,7 +1509,7 @@
         <v>101.0839861167126</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>203.9944217122105</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>179.0897116869828</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089989</v>
       </c>
       <c r="G14" t="n">
         <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642678</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874612</v>
+        <v>65.8728397687462</v>
       </c>
       <c r="T14" t="n">
-        <v>89.1834140824707</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>117.4447291655875</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715472</v>
+        <v>70.61016379332879</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560321</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192622</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268833</v>
+        <v>25.92847942268841</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067126</v>
+        <v>13.35261136067135</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115071</v>
+        <v>5.358526637115157</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>54.52870250319</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>166.6979539789397</v>
@@ -1740,19 +1740,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>94.20712384475017</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V15" t="n">
         <v>101.0839861167127</v>
       </c>
       <c r="W15" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076486</v>
+        <v>74.05638417076494</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459174</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922476</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591522</v>
+        <v>35.5302200659153</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549982</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385655</v>
+        <v>14.71736161385664</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021863</v>
+        <v>13.70444699021871</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028137</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304864</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755893004</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437373</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529492</v>
+        <v>88.378708405295</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494642</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200257</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911155</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038785</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632462</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938226</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F17" t="n">
-        <v>169.496556515594</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
         <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1910,7 +1910,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>194.9731266981675</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>169.0304927129561</v>
       </c>
       <c r="W18" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>48.92726692662031</v>
+      </c>
+      <c r="V19" t="n">
+        <v>14.75815409771005</v>
+      </c>
+      <c r="W19" t="n">
+        <v>49.14350911047305</v>
+      </c>
+      <c r="X19" t="n">
         <v>180.4328844084323</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>48.92726692662036</v>
-      </c>
-      <c r="V19" t="n">
-        <v>14.7581540977101</v>
-      </c>
-      <c r="W19" t="n">
-        <v>49.1435091104731</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2147,7 +2147,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>136.24462332688</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>97.5264438843472</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>14.31549393480171</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170862</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.25670399134607</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.1435091104731</v>
+        <v>62.32957242027756</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D23" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2384,7 +2384,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>67.17163062884855</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>138.4169824543232</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V25" t="n">
-        <v>195.1910385061424</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300671</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T26" t="n">
         <v>70.85595483673131</v>
@@ -2640,19 +2640,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>118.7941356814421</v>
       </c>
       <c r="G27" t="n">
-        <v>84.00546946691217</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048767</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
         <v>49.0388704145322</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901078</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885235</v>
       </c>
     </row>
     <row r="28">
@@ -2810,7 +2810,7 @@
         <v>184.2935426253701</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068733</v>
+        <v>41.09318678068735</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948879</v>
       </c>
       <c r="F30" t="n">
-        <v>79.03062158184413</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048761</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453214</v>
+        <v>49.55019725656038</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>82.7565268709732</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300671</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T32" t="n">
         <v>70.85595483673131</v>
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>16.65389370048767</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
-        <v>49.0388704145322</v>
+        <v>49.55019725656016</v>
       </c>
       <c r="U33" t="n">
-        <v>159.885134065923</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V35" t="n">
         <v>90.37276924401698</v>
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>15.23217334976549</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>63.26978867166888</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.01183638550114</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.600904226495092</v>
       </c>
       <c r="U37" t="n">
         <v>48.92726692662033</v>
@@ -3503,22 +3503,22 @@
         <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945649</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F38" t="n">
-        <v>169.4965565155934</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770418</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149212</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401689</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W38" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X38" t="n">
-        <v>132.351611452351</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3582,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>15.23217334976549</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>150.2492530598126</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480168</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="T40" t="n">
-        <v>180.4328844084326</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662025</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409770999</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047299</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482974</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E41" t="n">
-        <v>161.0303549570785</v>
+        <v>161.0303549570786</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265282</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221225</v>
       </c>
       <c r="H41" t="n">
-        <v>113.4375877886389</v>
+        <v>113.437587788639</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242694</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549516</v>
+        <v>106.8522433549517</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022297</v>
+        <v>128.3409536022298</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8310855632857</v>
+        <v>148.8310855632858</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408704</v>
       </c>
     </row>
     <row r="42">
@@ -3825,19 +3825,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>127.0411061408682</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
-        <v>11.90057203424195</v>
+        <v>31.05293704943703</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>120.1006484492985</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352475738</v>
       </c>
       <c r="U43" t="n">
-        <v>185.5073894868542</v>
+        <v>65.40674103755505</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864479</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140779</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853944</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242682</v>
       </c>
       <c r="V44" t="n">
         <v>106.8522433549516</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>161.4587281333354</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,7 +4119,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>205.0941410700328</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>120.1006484492992</v>
+        <v>120.1006484492991</v>
       </c>
       <c r="T46" t="n">
         <v>6.084173352475625</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.3727401133267</v>
+        <v>773.7867242610569</v>
       </c>
       <c r="C11" t="n">
-        <v>308.3727401133267</v>
+        <v>773.7867242610569</v>
       </c>
       <c r="D11" t="n">
-        <v>308.3727401133267</v>
+        <v>773.7867242610569</v>
       </c>
       <c r="E11" t="n">
-        <v>308.3727401133267</v>
+        <v>521.0455434130274</v>
       </c>
       <c r="F11" t="n">
-        <v>30.43390707393399</v>
+        <v>521.0455434130274</v>
       </c>
       <c r="G11" t="n">
-        <v>30.43390707393399</v>
+        <v>235.1015857316203</v>
       </c>
       <c r="H11" t="n">
         <v>30.43390707393399</v>
@@ -5039,7 +5039,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K11" t="n">
         <v>226.9372683326556</v>
@@ -5060,31 +5060,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S11" t="n">
-        <v>1468.333418724091</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1378.24916207513</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1257.452270757052</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V11" t="n">
-        <v>1059.436455163696</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W11" t="n">
-        <v>1059.436455163696</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="X11" t="n">
-        <v>819.0177686528307</v>
+        <v>1027.339492574964</v>
       </c>
       <c r="Y11" t="n">
-        <v>561.9255084272338</v>
+        <v>1027.339492574964</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>590.6284307249186</v>
+        <v>213.7834117083985</v>
       </c>
       <c r="C12" t="n">
-        <v>549.2224731940064</v>
+        <v>172.3774541774863</v>
       </c>
       <c r="D12" t="n">
-        <v>533.33513528297</v>
+        <v>156.4901162664499</v>
       </c>
       <c r="E12" t="n">
-        <v>374.0976802775145</v>
+        <v>130.2997330112092</v>
       </c>
       <c r="F12" t="n">
-        <v>360.6101940546143</v>
+        <v>116.812246788309</v>
       </c>
       <c r="G12" t="n">
-        <v>222.1504691355965</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H12" t="n">
         <v>111.399593619506</v>
@@ -5118,52 +5118,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K12" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L12" t="n">
-        <v>486.3521110234744</v>
+        <v>431.7629153737462</v>
       </c>
       <c r="M12" t="n">
-        <v>862.9717110634076</v>
+        <v>808.3825154136794</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.723818564188</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O12" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R12" t="n">
-        <v>1463.244024961388</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S12" t="n">
-        <v>1427.909325015704</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T12" t="n">
-        <v>1359.862527379066</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U12" t="n">
-        <v>1264.703816424773</v>
+        <v>972.7234838567416</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.598779943246</v>
+        <v>870.6184473752137</v>
       </c>
       <c r="W12" t="n">
-        <v>908.3614232150438</v>
+        <v>664.5634759487384</v>
       </c>
       <c r="X12" t="n">
-        <v>700.509923009511</v>
+        <v>456.7119757432056</v>
       </c>
       <c r="Y12" t="n">
-        <v>625.7966959947719</v>
+        <v>381.9987487284666</v>
       </c>
     </row>
     <row r="13">
@@ -5191,31 +5191,31 @@
         <v>76.37056042946772</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184298</v>
+        <v>47.57254097184297</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220485</v>
+        <v>84.15679020220483</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701336</v>
+        <v>203.4791748685364</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383618</v>
+        <v>394.3108706367645</v>
       </c>
       <c r="M13" t="n">
-        <v>613.7275326835534</v>
+        <v>598.8167744819561</v>
       </c>
       <c r="N13" t="n">
-        <v>821.9059667580939</v>
+        <v>806.9952085564966</v>
       </c>
       <c r="O13" t="n">
-        <v>1008.130600786446</v>
+        <v>993.2198425848489</v>
       </c>
       <c r="P13" t="n">
-        <v>1081.219273571222</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q13" t="n">
         <v>1081.219273571222</v>
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>987.1837235154313</v>
+        <v>1082.973323832961</v>
       </c>
       <c r="C14" t="n">
-        <v>987.1837235154313</v>
+        <v>847.0578786427637</v>
       </c>
       <c r="D14" t="n">
-        <v>761.9650966588957</v>
+        <v>847.0578786427637</v>
       </c>
       <c r="E14" t="n">
-        <v>581.0663979851759</v>
+        <v>594.3166977947342</v>
       </c>
       <c r="F14" t="n">
-        <v>581.0663979851759</v>
+        <v>316.3778647553412</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037687</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608228</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020954</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L14" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5297,31 +5297,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
         <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1365.072875059107</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="U14" t="n">
-        <v>1244.275983741028</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="V14" t="n">
-        <v>1244.275983741028</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="W14" t="n">
-        <v>1244.275983741028</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="X14" t="n">
-        <v>1244.275983741028</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="Y14" t="n">
-        <v>987.1837235154313</v>
+        <v>1336.526092146868</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>564.7422416573165</v>
+        <v>213.7834117083992</v>
       </c>
       <c r="C15" t="n">
-        <v>390.2892123761895</v>
+        <v>172.3774541774869</v>
       </c>
       <c r="D15" t="n">
-        <v>241.3548027149383</v>
+        <v>156.4901162664503</v>
       </c>
       <c r="E15" t="n">
-        <v>215.1644194596975</v>
+        <v>130.2997330112095</v>
       </c>
       <c r="F15" t="n">
-        <v>201.6769332367973</v>
+        <v>116.8122467883092</v>
       </c>
       <c r="G15" t="n">
-        <v>196.2642800679942</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51340455190369</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I15" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>54.7981338372213</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K15" t="n">
-        <v>223.0613211674321</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867617</v>
+        <v>342.4531504565508</v>
       </c>
       <c r="M15" t="n">
-        <v>510.7163377867617</v>
+        <v>719.0727504964839</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211013</v>
+        <v>1095.692350536417</v>
       </c>
       <c r="O15" t="n">
         <v>1185.002115453613</v>
@@ -5376,31 +5376,31 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S15" t="n">
-        <v>1268.976064197888</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T15" t="n">
-        <v>1067.882194811035</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U15" t="n">
-        <v>972.7234838567417</v>
+        <v>924.0139299094402</v>
       </c>
       <c r="V15" t="n">
-        <v>870.6184473752138</v>
+        <v>821.9088934279122</v>
       </c>
       <c r="W15" t="n">
-        <v>749.428162397227</v>
+        <v>567.6715366997105</v>
       </c>
       <c r="X15" t="n">
-        <v>674.6237339419089</v>
+        <v>492.8671082443923</v>
       </c>
       <c r="Y15" t="n">
-        <v>599.9105069271698</v>
+        <v>285.1068094794384</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858026</v>
+        <v>194.4516414858032</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081105</v>
+        <v>158.562530308111</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459895</v>
+        <v>141.49296264599</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138112</v>
+        <v>126.6269408138115</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661159</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946783</v>
+        <v>76.370560429468</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184303</v>
+        <v>47.57254097184312</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220479</v>
+        <v>84.15679020220469</v>
       </c>
       <c r="K16" t="n">
-        <v>203.4791748685373</v>
+        <v>218.3899330701333</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3108706367655</v>
+        <v>394.310870636767</v>
       </c>
       <c r="M16" t="n">
-        <v>468.4173394595715</v>
+        <v>598.8167744819585</v>
       </c>
       <c r="N16" t="n">
-        <v>676.5957735341119</v>
+        <v>806.9952085564988</v>
       </c>
       <c r="O16" t="n">
-        <v>862.8204075624643</v>
+        <v>862.8204075624657</v>
       </c>
       <c r="P16" t="n">
-        <v>1017.467262206714</v>
+        <v>1017.467262206715</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571224</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617311</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856987</v>
+        <v>956.1300939856999</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877742</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493634</v>
+        <v>703.7485358493644</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936913</v>
+        <v>582.1111193936922</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069463</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591437</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658276</v>
+        <v>243.0530345658283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852414</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693744</v>
+        <v>478.7938061693739</v>
       </c>
       <c r="F17" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243299</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
         <v>30.43390707393399</v>
@@ -5513,13 +5513,13 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K17" t="n">
         <v>226.9372683326556</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M17" t="n">
         <v>789.5552979241022</v>
@@ -5534,25 +5534,25 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.628652472969</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973962</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X17" t="n">
         <v>1169.663137131896</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>681.5977813088564</v>
+        <v>492.2810709353301</v>
       </c>
       <c r="C18" t="n">
-        <v>507.1447520277294</v>
+        <v>317.8280416542032</v>
       </c>
       <c r="D18" t="n">
-        <v>507.1447520277294</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="E18" t="n">
-        <v>507.1447520277294</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F18" t="n">
-        <v>360.6101940546143</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G18" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H18" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I18" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K18" t="n">
-        <v>198.6970944041448</v>
+        <v>208.7559636618384</v>
       </c>
       <c r="L18" t="n">
-        <v>486.3521110234744</v>
+        <v>496.410980281168</v>
       </c>
       <c r="M18" t="n">
-        <v>862.9717110634076</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="N18" t="n">
-        <v>1106.412173483915</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O18" t="n">
-        <v>1418.383708616427</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P18" t="n">
         <v>1418.383708616427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R18" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S18" t="n">
-        <v>1268.976064197888</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T18" t="n">
-        <v>1072.033511977516</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="U18" t="n">
-        <v>1072.033511977516</v>
+        <v>1125.107799296293</v>
       </c>
       <c r="V18" t="n">
-        <v>1072.033511977516</v>
+        <v>954.3699278690647</v>
       </c>
       <c r="W18" t="n">
-        <v>1057.573417093878</v>
+        <v>700.132571140863</v>
       </c>
       <c r="X18" t="n">
-        <v>1057.573417093878</v>
+        <v>492.2810709353301</v>
       </c>
       <c r="Y18" t="n">
-        <v>849.8131183289245</v>
+        <v>492.2810709353301</v>
       </c>
     </row>
     <row r="19">
@@ -5674,43 +5674,43 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M19" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S19" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T19" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U19" t="n">
-        <v>94.98104162765442</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V19" t="n">
-        <v>80.07381526633108</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W19" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X19" t="n">
         <v>30.43390707393399</v>
@@ -5729,19 +5729,19 @@
         <v>872.4784887810897</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E20" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F20" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243303</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
         <v>30.43390707393399</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K20" t="n">
         <v>226.9372683326556</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5771,16 +5771,16 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U20" t="n">
         <v>1507.62865247297</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>839.0706050195934</v>
+        <v>637.9767356327404</v>
       </c>
       <c r="C21" t="n">
-        <v>664.6175757384664</v>
+        <v>463.5237063516134</v>
       </c>
       <c r="D21" t="n">
-        <v>515.6831660772151</v>
+        <v>314.5892966903622</v>
       </c>
       <c r="E21" t="n">
-        <v>356.4457110717596</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F21" t="n">
-        <v>209.9111530986446</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G21" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I21" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>54.7981338372213</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K21" t="n">
         <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>510.7163377867617</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M21" t="n">
-        <v>510.7163377867617</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211013</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453613</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P21" t="n">
         <v>1418.383708616427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
         <v>1437.357835893786</v>
@@ -5859,22 +5859,22 @@
         <v>1437.357835893786</v>
       </c>
       <c r="T21" t="n">
-        <v>1437.357835893786</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="U21" t="n">
-        <v>1437.357835893786</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="V21" t="n">
-        <v>1437.357835893786</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="W21" t="n">
-        <v>1422.897741010148</v>
+        <v>1221.803871623295</v>
       </c>
       <c r="X21" t="n">
-        <v>1215.046240804615</v>
+        <v>1013.952371417762</v>
       </c>
       <c r="Y21" t="n">
-        <v>1007.285942039661</v>
+        <v>806.1920726528085</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393399</v>
+        <v>199.3700900018409</v>
       </c>
       <c r="C22" t="n">
         <v>30.43390707393399</v>
@@ -5911,49 +5911,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M22" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N22" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O22" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P22" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R22" t="n">
-        <v>157.7931334639842</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S22" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T22" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765442</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633108</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393399</v>
+        <v>199.3700900018409</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393399</v>
+        <v>199.3700900018409</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393399</v>
+        <v>199.3700900018409</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810911</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C23" t="n">
-        <v>743.293233685243</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230561</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693754</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243314</v>
+        <v>307.5851632243303</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I23" t="n">
         <v>30.43390707393402</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K23" t="n">
         <v>226.9372683326556</v>
@@ -6008,31 +6008,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548414</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>798.0530839139007</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="C24" t="n">
-        <v>623.6000546327737</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D24" t="n">
-        <v>474.6656449715225</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E24" t="n">
-        <v>315.428189966067</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F24" t="n">
-        <v>168.8936319929519</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>54.79813383722132</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K24" t="n">
         <v>223.0613211674321</v>
       </c>
       <c r="L24" t="n">
-        <v>510.7163377867617</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="M24" t="n">
-        <v>873.0305803211027</v>
+        <v>599.6809212073651</v>
       </c>
       <c r="N24" t="n">
-        <v>873.0305803211027</v>
+        <v>976.3005212472983</v>
       </c>
       <c r="O24" t="n">
-        <v>1185.002115453614</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1418.383708616428</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.695353696701</v>
+        <v>1453.845221748368</v>
       </c>
       <c r="S24" t="n">
-        <v>1521.695353696701</v>
+        <v>1285.463450052469</v>
       </c>
       <c r="T24" t="n">
-        <v>1521.695353696701</v>
+        <v>1084.369580665616</v>
       </c>
       <c r="U24" t="n">
-        <v>1521.695353696701</v>
+        <v>1084.369580665616</v>
       </c>
       <c r="V24" t="n">
-        <v>1521.695353696701</v>
+        <v>849.2174724338736</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.880219904455</v>
+        <v>594.980115705672</v>
       </c>
       <c r="X24" t="n">
-        <v>1174.028719698922</v>
+        <v>387.1286155001392</v>
       </c>
       <c r="Y24" t="n">
-        <v>966.2684209339686</v>
+        <v>179.3683167351853</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K25" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M25" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240507</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V25" t="n">
-        <v>80.0738152663311</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W25" t="n">
-        <v>30.43390707393402</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1468.184568607515</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D26" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028723</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F26" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G26" t="n">
         <v>282.989450475485</v>
@@ -6224,13 +6224,13 @@
         <v>55.32608743906318</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491205</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471606</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991902</v>
@@ -6257,7 +6257,7 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287608</v>
       </c>
       <c r="V26" t="n">
         <v>2364.919526790958</v>
@@ -6269,7 +6269,7 @@
         <v>1941.804426953606</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>769.3395489225495</v>
+        <v>836.5616879665572</v>
       </c>
       <c r="C27" t="n">
-        <v>594.8865196414225</v>
+        <v>662.1086586854302</v>
       </c>
       <c r="D27" t="n">
-        <v>445.9521099801713</v>
+        <v>513.1742490241789</v>
       </c>
       <c r="E27" t="n">
-        <v>286.7146549747158</v>
+        <v>505.4964508656446</v>
       </c>
       <c r="F27" t="n">
-        <v>140.1800970016007</v>
+        <v>385.5023744197435</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906318</v>
+        <v>247.0426495007256</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906318</v>
+        <v>136.2917739846352</v>
       </c>
       <c r="I27" t="n">
         <v>55.32608743906318</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1919.202275730635</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U27" t="n">
-        <v>1690.996493026127</v>
+        <v>1606.658975223214</v>
       </c>
       <c r="V27" t="n">
-        <v>1455.844384794385</v>
+        <v>1371.506866991471</v>
       </c>
       <c r="W27" t="n">
-        <v>1353.166684913104</v>
+        <v>1268.829167110191</v>
       </c>
       <c r="X27" t="n">
-        <v>1145.315184707571</v>
+        <v>1060.977666904658</v>
       </c>
       <c r="Y27" t="n">
-        <v>937.5548859426176</v>
+        <v>1004.777024986625</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2046.150005738097</v>
+        <v>96.31218528794295</v>
       </c>
       <c r="C28" t="n">
-        <v>2028.773479657111</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="D28" t="n">
-        <v>2028.773479657111</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="E28" t="n">
-        <v>2028.773479657111</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F28" t="n">
-        <v>2028.773479657111</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G28" t="n">
-        <v>2010.87256011717</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H28" t="n">
-        <v>2000.587125756252</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I28" t="n">
-        <v>2001.933735326193</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="J28" t="n">
-        <v>2001.933735326193</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="K28" t="n">
-        <v>2005.767443171736</v>
+        <v>209.0500245302152</v>
       </c>
       <c r="L28" t="n">
-        <v>2066.199703917579</v>
+        <v>269.4822852760578</v>
       </c>
       <c r="M28" t="n">
-        <v>2288.849792416052</v>
+        <v>492.1323737745313</v>
       </c>
       <c r="N28" t="n">
-        <v>2515.172411143875</v>
+        <v>569.9113728266863</v>
       </c>
       <c r="O28" t="n">
-        <v>2719.541229825509</v>
+        <v>710.3229358633502</v>
       </c>
       <c r="P28" t="n">
-        <v>2743.788649447373</v>
+        <v>734.5703554852141</v>
       </c>
       <c r="Q28" t="n">
-        <v>2766.304371953159</v>
+        <v>816.4665515030049</v>
       </c>
       <c r="R28" t="n">
-        <v>2748.999200095952</v>
+        <v>799.1613796457985</v>
       </c>
       <c r="S28" t="n">
-        <v>2678.240362561048</v>
+        <v>728.4025421108939</v>
       </c>
       <c r="T28" t="n">
-        <v>2600.523061359829</v>
+        <v>650.6852409096748</v>
       </c>
       <c r="U28" t="n">
-        <v>2462.883974618126</v>
+        <v>513.0461541679715</v>
       </c>
       <c r="V28" t="n">
-        <v>2359.75914325916</v>
+        <v>409.9213228090058</v>
       </c>
       <c r="W28" t="n">
-        <v>2221.901630069121</v>
+        <v>272.0638096189664</v>
       </c>
       <c r="X28" t="n">
-        <v>2145.471736018024</v>
+        <v>195.6339155678703</v>
       </c>
       <c r="Y28" t="n">
-        <v>2076.238813721416</v>
+        <v>126.4009932712614</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>282.9894504754843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450455</v>
+        <v>96.83435691450492</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906316</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210061</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K29" t="n">
         <v>548.9166880491198</v>
@@ -6482,19 +6482,19 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R29" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061231</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508977</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287605</v>
       </c>
       <c r="V29" t="n">
         <v>2364.919526790956</v>
@@ -6503,7 +6503,7 @@
         <v>2163.710528367763</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953604</v>
       </c>
       <c r="Y29" t="n">
         <v>1703.224751824714</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>617.7798920756284</v>
+        <v>532.9258825130906</v>
       </c>
       <c r="C30" t="n">
-        <v>443.3268627945014</v>
+        <v>358.4728532319637</v>
       </c>
       <c r="D30" t="n">
-        <v>294.3924531332501</v>
+        <v>209.5384435707124</v>
       </c>
       <c r="E30" t="n">
-        <v>135.1549981277946</v>
+        <v>201.8606454121782</v>
       </c>
       <c r="F30" t="n">
         <v>55.32608743906316</v>
@@ -6540,10 +6540,10 @@
         <v>55.32608743906316</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K30" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L30" t="n">
         <v>535.6085181518908</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T30" t="n">
-        <v>1919.202275730635</v>
+        <v>1682.788609321176</v>
       </c>
       <c r="U30" t="n">
-        <v>1690.996493026127</v>
+        <v>1454.582826616668</v>
       </c>
       <c r="V30" t="n">
-        <v>1455.844384794385</v>
+        <v>1370.990375231847</v>
       </c>
       <c r="W30" t="n">
-        <v>1201.607028066183</v>
+        <v>1116.753018503645</v>
       </c>
       <c r="X30" t="n">
-        <v>993.7555278606503</v>
+        <v>908.9015182981125</v>
       </c>
       <c r="Y30" t="n">
-        <v>785.9952290956965</v>
+        <v>701.1412195331586</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8889674209083</v>
+        <v>91.32388724474136</v>
       </c>
       <c r="C31" t="n">
-        <v>83.5124413399227</v>
+        <v>73.94736116375573</v>
       </c>
       <c r="D31" t="n">
-        <v>83.5124413399227</v>
+        <v>75.36166255139304</v>
       </c>
       <c r="E31" t="n">
-        <v>83.5124413399227</v>
+        <v>78.9356592069571</v>
       </c>
       <c r="F31" t="n">
         <v>83.5124413399227</v>
@@ -6622,49 +6622,49 @@
         <v>55.32608743906316</v>
       </c>
       <c r="K31" t="n">
-        <v>59.15979528460635</v>
+        <v>59.15979528460634</v>
       </c>
       <c r="L31" t="n">
-        <v>268.1356757061165</v>
+        <v>200.5367315878848</v>
       </c>
       <c r="M31" t="n">
-        <v>342.2421445289226</v>
+        <v>274.6432004106908</v>
       </c>
       <c r="N31" t="n">
-        <v>420.0211435810775</v>
+        <v>352.4221994628458</v>
       </c>
       <c r="O31" t="n">
-        <v>566.3560983206471</v>
+        <v>556.7910181444802</v>
       </c>
       <c r="P31" t="n">
-        <v>739.1471376181787</v>
+        <v>729.5820574420118</v>
       </c>
       <c r="Q31" t="n">
-        <v>821.0433336359696</v>
+        <v>811.4782534598025</v>
       </c>
       <c r="R31" t="n">
-        <v>803.7381617787634</v>
+        <v>794.1730816025963</v>
       </c>
       <c r="S31" t="n">
-        <v>732.9793242438589</v>
+        <v>723.4142440676918</v>
       </c>
       <c r="T31" t="n">
-        <v>655.2620230426397</v>
+        <v>645.6969428664727</v>
       </c>
       <c r="U31" t="n">
-        <v>517.6229363009365</v>
+        <v>508.0578561247695</v>
       </c>
       <c r="V31" t="n">
-        <v>414.498104941971</v>
+        <v>404.9330247658039</v>
       </c>
       <c r="W31" t="n">
-        <v>276.6405917519317</v>
+        <v>267.0755115757646</v>
       </c>
       <c r="X31" t="n">
-        <v>200.2106977008356</v>
+        <v>190.6456175246686</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.9777754042267</v>
+        <v>121.4126952280598</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607513</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514023</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028712</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601853</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754845</v>
+        <v>282.9894504754851</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450497</v>
       </c>
       <c r="I32" t="n">
         <v>55.32608743906316</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210063</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491199</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471601</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
@@ -6725,25 +6725,25 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U32" t="n">
         <v>2544.422757287606</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367763</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953604</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824714</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684.485539360012</v>
+        <v>532.9258825130908</v>
       </c>
       <c r="C33" t="n">
         <v>510.032510078885</v>
@@ -6777,10 +6777,10 @@
         <v>55.32608743906316</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K33" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L33" t="n">
         <v>535.6085181518908</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T33" t="n">
-        <v>1919.202275730635</v>
+        <v>1682.788609321176</v>
       </c>
       <c r="U33" t="n">
-        <v>1757.702140310511</v>
+        <v>1454.582826616669</v>
       </c>
       <c r="V33" t="n">
-        <v>1522.550032078768</v>
+        <v>1219.430718384926</v>
       </c>
       <c r="W33" t="n">
-        <v>1268.312675350567</v>
+        <v>1116.753018503646</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.461175145034</v>
+        <v>908.9015182981127</v>
       </c>
       <c r="Y33" t="n">
-        <v>852.70087638008</v>
+        <v>701.1412195331588</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209085</v>
+        <v>92.73818863237894</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992282</v>
+        <v>75.36166255139325</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992282</v>
+        <v>75.36166255139325</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="F34" t="n">
         <v>83.51244133992282</v>
@@ -6856,52 +6856,52 @@
         <v>55.32608743906316</v>
       </c>
       <c r="J34" t="n">
-        <v>127.1931552206159</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="K34" t="n">
-        <v>131.0268630661591</v>
+        <v>207.7034149602738</v>
       </c>
       <c r="L34" t="n">
-        <v>340.0027434876692</v>
+        <v>268.1356757061164</v>
       </c>
       <c r="M34" t="n">
-        <v>562.6528319861428</v>
+        <v>490.78576420459</v>
       </c>
       <c r="N34" t="n">
-        <v>740.9707150081396</v>
+        <v>717.1083829324124</v>
       </c>
       <c r="O34" t="n">
-        <v>796.7959140141064</v>
+        <v>772.9335819383792</v>
       </c>
       <c r="P34" t="n">
-        <v>821.0433336359704</v>
+        <v>797.1810015602432</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.0433336359704</v>
+        <v>812.8925548474408</v>
       </c>
       <c r="R34" t="n">
-        <v>803.738161778764</v>
+        <v>795.5873829902345</v>
       </c>
       <c r="S34" t="n">
-        <v>732.9793242438594</v>
+        <v>724.8285454553298</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426403</v>
+        <v>647.1112442541107</v>
       </c>
       <c r="U34" t="n">
-        <v>517.622936300937</v>
+        <v>509.4721575124075</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419714</v>
+        <v>406.3473261534418</v>
       </c>
       <c r="W34" t="n">
-        <v>276.640591751932</v>
+        <v>268.4898129634024</v>
       </c>
       <c r="X34" t="n">
-        <v>200.2106977008359</v>
+        <v>192.0599189123063</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.977775404227</v>
+        <v>122.8269966156974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693743</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243303</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372716</v>
@@ -6935,16 +6935,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
-        <v>60.7526010802095</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6953,7 +6953,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P35" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q35" t="n">
         <v>1521.6953536967</v>
@@ -6974,7 +6974,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X35" t="n">
         <v>1169.663137131896</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>220.2729700416928</v>
+        <v>364.1243913605165</v>
       </c>
       <c r="C36" t="n">
-        <v>45.8199407605658</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="D36" t="n">
-        <v>30.43390707393399</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="E36" t="n">
         <v>30.43390707393399</v>
@@ -7014,22 +7014,22 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>54.7981338372213</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K36" t="n">
         <v>223.0613211674321</v>
       </c>
       <c r="L36" t="n">
-        <v>510.7163377867617</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M36" t="n">
-        <v>873.0305803211013</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N36" t="n">
-        <v>873.0305803211013</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O36" t="n">
-        <v>1185.002115453613</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P36" t="n">
         <v>1418.383708616427</v>
@@ -7059,7 +7059,7 @@
         <v>596.2486058267148</v>
       </c>
       <c r="Y36" t="n">
-        <v>388.4883070617608</v>
+        <v>532.3397283805846</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.3238545718444</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C37" t="n">
-        <v>177.3238545718444</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D37" t="n">
-        <v>177.3238545718444</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E37" t="n">
-        <v>177.3238545718444</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F37" t="n">
         <v>30.43390707393399</v>
@@ -7099,7 +7099,7 @@
         <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
@@ -7111,34 +7111,34 @@
         <v>302.4105425462477</v>
       </c>
       <c r="P37" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S37" t="n">
-        <v>291.2924708696257</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T37" t="n">
-        <v>291.2924708696257</v>
+        <v>326.050988201955</v>
       </c>
       <c r="U37" t="n">
-        <v>241.8709891255647</v>
+        <v>276.629506457894</v>
       </c>
       <c r="V37" t="n">
-        <v>226.9637627642414</v>
+        <v>261.7222800965707</v>
       </c>
       <c r="W37" t="n">
-        <v>177.3238545718444</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="X37" t="n">
-        <v>177.3238545718444</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.3238545718444</v>
+        <v>212.0823719041737</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852415</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693746</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243307</v>
+        <v>307.5851632243303</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H38" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43390707393407</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J38" t="n">
         <v>60.75260108020962</v>
@@ -7178,10 +7178,10 @@
         <v>226.9372683326557</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7211,7 +7211,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X38" t="n">
         <v>1169.663137131896</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>220.2729700416928</v>
+        <v>469.5949639368421</v>
       </c>
       <c r="C39" t="n">
-        <v>45.8199407605658</v>
+        <v>469.5949639368421</v>
       </c>
       <c r="D39" t="n">
-        <v>30.43390707393399</v>
+        <v>320.6605542755909</v>
       </c>
       <c r="E39" t="n">
-        <v>30.43390707393399</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F39" t="n">
-        <v>30.43390707393399</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G39" t="n">
         <v>30.43390707393399</v>
@@ -7251,52 +7251,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K39" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L39" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M39" t="n">
-        <v>694.7085237331967</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N39" t="n">
-        <v>1071.32812377313</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O39" t="n">
-        <v>1383.299658905641</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.6953536967</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U39" t="n">
-        <v>1293.489570992192</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="V39" t="n">
-        <v>1058.337462760449</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="W39" t="n">
-        <v>804.1001060322476</v>
+        <v>1053.422099927397</v>
       </c>
       <c r="X39" t="n">
-        <v>596.2486058267148</v>
+        <v>845.570599721864</v>
       </c>
       <c r="Y39" t="n">
-        <v>388.4883070617608</v>
+        <v>637.8103009569102</v>
       </c>
     </row>
     <row r="40">
@@ -7336,7 +7336,7 @@
         <v>34.26761491947718</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
@@ -7357,16 +7357,16 @@
         <v>326.6579621681117</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="T40" t="n">
-        <v>144.4025233717151</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="U40" t="n">
-        <v>94.98104162765419</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V40" t="n">
-        <v>80.07381526633097</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W40" t="n">
         <v>30.43390707393399</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829039</v>
+        <v>976.4306445829036</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416673</v>
+        <v>830.5994560416668</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340918</v>
+        <v>695.4650858340915</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350227</v>
+        <v>532.8081616350225</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445902</v>
+        <v>344.95358524459</v>
       </c>
       <c r="G41" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H41" t="n">
         <v>34.51046220341689</v>
@@ -7418,7 +7418,7 @@
         <v>489.4572257845111</v>
       </c>
       <c r="M41" t="n">
-        <v>793.6318530535851</v>
+        <v>793.631853053585</v>
       </c>
       <c r="N41" t="n">
         <v>1088.096346250842</v>
@@ -7430,16 +7430,16 @@
         <v>1482.035250865749</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="U41" t="n">
         <v>1694.810475501727</v>
@@ -7454,7 +7454,7 @@
         <v>1306.907159824487</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>585.3981456644822</v>
+        <v>627.8862316673411</v>
       </c>
       <c r="C42" t="n">
-        <v>410.9451163833552</v>
+        <v>453.4332023862141</v>
       </c>
       <c r="D42" t="n">
-        <v>262.0107067221039</v>
+        <v>304.4987927249629</v>
       </c>
       <c r="E42" t="n">
-        <v>262.0107067221039</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="F42" t="n">
-        <v>115.4761487489889</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="G42" t="n">
-        <v>115.4761487489889</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I42" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670418</v>
       </c>
       <c r="K42" t="n">
-        <v>202.7736495336277</v>
+        <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
-        <v>490.4286661529572</v>
+        <v>514.7928929162446</v>
       </c>
       <c r="M42" t="n">
-        <v>878.0877243774198</v>
+        <v>902.4519511407073</v>
       </c>
       <c r="N42" t="n">
-        <v>1291.713977745012</v>
+        <v>1180.169981875519</v>
       </c>
       <c r="O42" t="n">
-        <v>1603.685512877524</v>
+        <v>1492.14151700803</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S42" t="n">
-        <v>1557.141338474946</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T42" t="n">
-        <v>1356.047469088093</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="U42" t="n">
-        <v>1227.723119450852</v>
+        <v>1497.317327466337</v>
       </c>
       <c r="V42" t="n">
-        <v>1215.702339618285</v>
+        <v>1465.950724386097</v>
       </c>
       <c r="W42" t="n">
-        <v>961.4649828900831</v>
+        <v>1211.713367657896</v>
       </c>
       <c r="X42" t="n">
-        <v>753.6134826845503</v>
+        <v>1003.861867452363</v>
       </c>
       <c r="Y42" t="n">
-        <v>753.6134826845503</v>
+        <v>796.1015686874091</v>
       </c>
     </row>
     <row r="43">
@@ -7582,37 +7582,37 @@
         <v>250.6618986697637</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757306</v>
+        <v>306.4870976757305</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975945</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975945</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975945</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975945</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486293</v>
+        <v>324.5888876486291</v>
       </c>
       <c r="U43" t="n">
-        <v>137.2076861467565</v>
+        <v>258.5214724591796</v>
       </c>
       <c r="V43" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524677</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225914</v>
+        <v>160.682471014682</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158396</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158396</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350231</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445907</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
@@ -7649,49 +7649,49 @@
         <v>64.82915620969243</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0138234621385</v>
+        <v>430.7650248068009</v>
       </c>
       <c r="L44" t="n">
-        <v>489.4572257845111</v>
+        <v>689.2084271291735</v>
       </c>
       <c r="M44" t="n">
-        <v>793.6318530535851</v>
+        <v>993.3830543982474</v>
       </c>
       <c r="N44" t="n">
-        <v>1088.096346250842</v>
+        <v>1287.847547595504</v>
       </c>
       <c r="O44" t="n">
-        <v>1320.963179316412</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P44" t="n">
-        <v>1482.035250865749</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>489.2168848432387</v>
+        <v>340.2824751819874</v>
       </c>
       <c r="C45" t="n">
-        <v>489.2168848432387</v>
+        <v>340.2824751819874</v>
       </c>
       <c r="D45" t="n">
         <v>340.2824751819874</v>
@@ -7725,52 +7725,52 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670418</v>
       </c>
       <c r="K45" t="n">
-        <v>202.7736495336277</v>
+        <v>227.137876296915</v>
       </c>
       <c r="L45" t="n">
-        <v>490.4286661529572</v>
+        <v>275.5730252031912</v>
       </c>
       <c r="M45" t="n">
-        <v>878.0877243774198</v>
+        <v>663.2320834276538</v>
       </c>
       <c r="N45" t="n">
-        <v>1291.713977745012</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O45" t="n">
-        <v>1603.685512877524</v>
+        <v>1388.829871927758</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170845</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1472.803820672033</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.523110170844</v>
+        <v>1472.803820672033</v>
       </c>
       <c r="U45" t="n">
-        <v>1562.433485793738</v>
+        <v>1244.598037967525</v>
       </c>
       <c r="V45" t="n">
-        <v>1327.281377561995</v>
+        <v>1009.445929735782</v>
       </c>
       <c r="W45" t="n">
-        <v>1073.044020833793</v>
+        <v>755.2085730075805</v>
       </c>
       <c r="X45" t="n">
-        <v>865.1925206282606</v>
+        <v>548.0427739469413</v>
       </c>
       <c r="Y45" t="n">
-        <v>657.4322218633067</v>
+        <v>340.2824751819874</v>
       </c>
     </row>
     <row r="46">
@@ -7819,16 +7819,16 @@
         <v>250.6618986697637</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757306</v>
+        <v>306.4870976757305</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975945</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975945</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975945</v>
       </c>
       <c r="S46" t="n">
         <v>209.4207309851712</v>
@@ -7843,7 +7843,7 @@
         <v>105.6545263400447</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225914</v>
+        <v>39.36868470225915</v>
       </c>
       <c r="X46" t="n">
         <v>34.51046220341689</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>291.0894135731406</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N12" t="n">
-        <v>411.7927320538445</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661686</v>
       </c>
       <c r="P12" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>74.13025746266389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>427.5120603705708</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>168.9514402713598</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9176,13 +9176,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>250.0153809463224</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N18" t="n">
-        <v>307.437535003064</v>
+        <v>61.53807801265202</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>74.13025746266389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>427.5120603705708</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>234.7276077790398</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599062</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,16 +9720,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565155</v>
       </c>
       <c r="M24" t="n">
-        <v>440.1042398205841</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N24" t="n">
-        <v>61.53807801265201</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>289.549247634106</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>440.1042398205827</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>61.53807801265201</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>234.72760777904</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368269</v>
+        <v>282.8272049391375</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>222.5174167492746</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,13 +11148,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>342.0613413811487</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>205.7920657414583</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>105.7220906850686</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>129.204115290274</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>205.7920657414583</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23264,19 @@
         <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395491</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711095</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642671</v>
+        <v>59.42064602642674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.04452414586297</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>219.2830308287743</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.5562907382949</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E14" t="n">
-        <v>71.12405735256638</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711097</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642687</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.18341408247079</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048976</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>196.0356574374224</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847005</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>238.0144996457565</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>137.0766084577536</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.81693585191</v>
       </c>
       <c r="C2" t="n">
         <v>40963.81693585192</v>
       </c>
       <c r="D2" t="n">
-        <v>40963.8169358519</v>
+        <v>40963.81693585191</v>
       </c>
       <c r="E2" t="n">
-        <v>35152.01089158411</v>
+        <v>35152.01089158416</v>
       </c>
       <c r="F2" t="n">
         <v>35152.01089158413</v>
@@ -26332,25 +26332,25 @@
         <v>41052.08849321419</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321413</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321413</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321411</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472423</v>
+        <v>84530.31055472433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472417</v>
+        <v>84530.31055472429</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239521</v>
+        <v>87131.0989423952</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510452</v>
+        <v>34584.19673510447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,10 +26433,10 @@
         <v>377919.8023185457</v>
       </c>
       <c r="H4" t="n">
-        <v>377919.8023185458</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="I4" t="n">
-        <v>377919.8023185458</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="J4" t="n">
         <v>376828.4269773418</v>
@@ -26448,13 +26448,13 @@
         <v>376828.4269773418</v>
       </c>
       <c r="M4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="N4" t="n">
         <v>377919.8023185458</v>
       </c>
       <c r="O4" t="n">
-        <v>376989.2813831306</v>
+        <v>376989.2813831305</v>
       </c>
       <c r="P4" t="n">
         <v>376989.2813831306</v>
@@ -26479,16 +26479,16 @@
         <v>36923.20336678313</v>
       </c>
       <c r="F5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678311</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431454</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561137</v>
@@ -26503,13 +26503,13 @@
         <v>45806.17671431452</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="O5" t="n">
         <v>47518.94570368935</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.94570368936</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428937.6627833962</v>
+        <v>-428942.0763612643</v>
       </c>
       <c r="C6" t="n">
-        <v>-428937.6627833962</v>
+        <v>-428942.0763612643</v>
       </c>
       <c r="D6" t="n">
-        <v>-428937.6627833963</v>
+        <v>-428942.0763612643</v>
       </c>
       <c r="E6" t="n">
-        <v>-631780.9474108892</v>
+        <v>-632075.9512909706</v>
       </c>
       <c r="F6" t="n">
-        <v>-312574.8024918989</v>
+        <v>-312869.8063719802</v>
       </c>
       <c r="G6" t="n">
-        <v>-467204.2010943702</v>
+        <v>-467204.2010943703</v>
       </c>
       <c r="H6" t="n">
-        <v>-382673.8905396461</v>
+        <v>-382673.890539646</v>
       </c>
       <c r="I6" t="n">
-        <v>-382673.8905396461</v>
+        <v>-382673.890539646</v>
       </c>
       <c r="J6" t="n">
-        <v>-510074.4282609496</v>
+        <v>-510074.4282609497</v>
       </c>
       <c r="K6" t="n">
         <v>-393158.3700997389</v>
@@ -26552,13 +26552,13 @@
         <v>-477688.6806544632</v>
       </c>
       <c r="M6" t="n">
-        <v>-469804.9894820412</v>
+        <v>-469804.9894820413</v>
       </c>
       <c r="N6" t="n">
         <v>-382673.8905396461</v>
       </c>
       <c r="O6" t="n">
-        <v>-418040.3353287103</v>
+        <v>-418040.3353287102</v>
       </c>
       <c r="P6" t="n">
         <v>-383456.1385936058</v>
@@ -26695,16 +26695,16 @@
         <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="J2" t="n">
         <v>150.044060278452</v>
@@ -26719,10 +26719,10 @@
         <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="P2" t="n">
         <v>220.9000151151833</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241752</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
         <v>691.5760929882897</v>
@@ -26826,10 +26826,10 @@
         <v>380.4238384241749</v>
       </c>
       <c r="O4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="P4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427111</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504679</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934052</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="M2" t="n">
         <v>87.33542894766592</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.9016979741121</v>
+        <v>27.90169797411201</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641145</v>
+        <v>311.1522545641149</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006033</v>
+        <v>69.27158386006028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853613</v>
+        <v>50.95693911853624</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504679</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>131.7166010327127</v>
@@ -28175,16 +28175,16 @@
         <v>131.7166010327127</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F12" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.62732717692619</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>131.7166010327127</v>
@@ -28229,7 +28229,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>47.7005614487091</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327127</v>
+        <v>116.6552291119075</v>
       </c>
       <c r="L13" t="n">
         <v>131.7166010327127</v>
@@ -28287,10 +28287,10 @@
         <v>131.7166010327127</v>
       </c>
       <c r="P13" t="n">
-        <v>49.334599154456</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.32062995745123</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R13" t="n">
         <v>131.7166010327127</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327126</v>
+        <v>95.92301985653855</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="F15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>25.62732717692626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28460,19 +28460,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="W15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="K16" t="n">
-        <v>116.6552291119085</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="L16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119103</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>4.109803994816701</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>63.77009443646921</v>
       </c>
       <c r="W18" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28767,25 +28767,25 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S19" t="n">
-        <v>39.66242502957522</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T19" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>45.27677098060482</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="21">
@@ -28886,19 +28886,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>21.40045712852094</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>39.54868378548048</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9237248774628</v>
@@ -28940,7 +28940,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -29004,22 +29004,22 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S22" t="n">
-        <v>206.8386054466615</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T22" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>237.3794892261179</v>
+        <v>224.1934259163135</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="24">
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
         <v>109.6433667609296</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>16.32251199603586</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>113.2780007065964</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S25" t="n">
         <v>220.0953094380075</v>
@@ -29250,16 +29250,16 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V25" t="n">
-        <v>56.94660481768562</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>45.27677098060482</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29360,19 +29360,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>26.27507671194179</v>
       </c>
       <c r="G27" t="n">
-        <v>53.06965820291551</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="28">
@@ -29442,7 +29442,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29457,7 +29457,7 @@
         <v>77.45106251930778</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,16 +29466,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>85.4407717481788</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="O28" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>90.06378400369927</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29548,7 +29548,7 @@
         <v>150.0440602784521</v>
       </c>
       <c r="O29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.0440602784513</v>
       </c>
       <c r="P29" t="n">
         <v>150.0440602784521</v>
@@ -29597,10 +29597,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="F30" t="n">
-        <v>66.03859081153975</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0751276698277</v>
@@ -29636,19 +29636,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>149.5327334364238</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>150.0440602784521</v>
-      </c>
-      <c r="T30" t="n">
-        <v>150.0440602784521</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>150.0440602784521</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="G31" t="n">
         <v>150.0440602784521</v>
@@ -29697,16 +29697,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>81.76229854286447</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>150.0440602784521</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>91.42399569050777</v>
       </c>
       <c r="P31" t="n">
         <v>150.0440602784521</v>
@@ -29788,7 +29788,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="P32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q32" t="n">
         <v>150.044060278452</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29873,22 +29873,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>149.5327334364241</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T33" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="U33" t="n">
-        <v>66.03859081153976</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29913,10 +29913,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29928,19 +29928,19 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
+        <v>77.45106251930778</v>
+      </c>
+      <c r="K34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="N34" t="n">
-        <v>101.5544282523655</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.32062995745123</v>
+        <v>83.19088580310537</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30068,10 +30068,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>132.2128922148733</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>142.4129071056355</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.7659706229939</v>
@@ -30189,13 +30189,13 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R37" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S37" t="n">
-        <v>185.0834730525064</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
-        <v>226.984188467659</v>
+        <v>226.3832842411639</v>
       </c>
       <c r="U37" t="n">
         <v>237.3794892261179</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="39">
@@ -30302,19 +30302,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>132.2128922148733</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>7.395827395588356</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
@@ -30347,22 +30347,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30429,19 +30429,19 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S40" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957513</v>
       </c>
       <c r="T40" t="n">
-        <v>46.55130405922631</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="I41" t="n">
         <v>191.1372470591394</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7688902471331</v>
+        <v>201.7688902471338</v>
       </c>
       <c r="R41" t="n">
         <v>118.359332514826</v>
@@ -30511,22 +30511,22 @@
         <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
     </row>
     <row r="42">
@@ -30545,19 +30545,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,16 +30587,16 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>98.88261873659457</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.9000151151833</v>
+        <v>201.7476500999882</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>59.73133173263879</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30663,25 +30663,25 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R43" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S43" t="n">
         <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="U43" t="n">
-        <v>100.7993666658841</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151832</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30721,7 +30721,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>201.7688902471337</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7688902471331</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.359332514826</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>64.46499674412738</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>0.6788441334446986</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30900,10 +30900,10 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S46" t="n">
-        <v>99.99466098870832</v>
+        <v>99.99466098870846</v>
       </c>
       <c r="T46" t="n">
         <v>220.9000151151833</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H11" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M11" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N11" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31792,7 +31792,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H12" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N12" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q12" t="n">
         <v>34.25968340095294</v>
@@ -31865,7 +31865,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J13" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K13" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424315</v>
@@ -31944,13 +31944,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T13" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H14" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M14" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N14" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
@@ -32029,7 +32029,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H15" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J15" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N15" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q15" t="n">
         <v>34.25968340095294</v>
@@ -32102,7 +32102,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H16" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J16" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K16" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N16" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424315</v>
@@ -32181,13 +32181,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T16" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H17" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M17" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N17" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32266,7 +32266,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H18" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J18" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N18" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q18" t="n">
         <v>34.25968340095294</v>
@@ -32339,7 +32339,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H19" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J19" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K19" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N19" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424315</v>
@@ -32418,13 +32418,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T19" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H20" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I20" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M20" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N20" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
@@ -32503,7 +32503,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H21" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J21" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N21" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q21" t="n">
         <v>34.25968340095294</v>
@@ -32576,7 +32576,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H22" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J22" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K22" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N22" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424315</v>
@@ -32655,13 +32655,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T22" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H23" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I23" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M23" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N23" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
@@ -32740,7 +32740,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H24" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J24" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N24" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q24" t="n">
         <v>34.25968340095294</v>
@@ -32813,7 +32813,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H25" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J25" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K25" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N25" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424315</v>
@@ -32892,13 +32892,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T25" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H26" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I26" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M26" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N26" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
@@ -32977,7 +32977,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H27" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J27" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N27" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q27" t="n">
         <v>34.25968340095294</v>
@@ -33050,7 +33050,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H28" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J28" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K28" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N28" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424315</v>
@@ -33129,13 +33129,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T28" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H29" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I29" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M29" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N29" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
@@ -33214,7 +33214,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H30" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J30" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N30" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q30" t="n">
         <v>34.25968340095294</v>
@@ -33287,7 +33287,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H31" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J31" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K31" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N31" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P31" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q31" t="n">
         <v>18.84141329424315</v>
@@ -33366,13 +33366,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T31" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H32" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I32" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M32" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N32" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
@@ -33451,7 +33451,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H33" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J33" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N33" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q33" t="n">
         <v>34.25968340095294</v>
@@ -33524,7 +33524,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H34" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J34" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K34" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N34" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P34" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84141329424315</v>
@@ -33603,13 +33603,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T34" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H35" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I35" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M35" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N35" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
@@ -33688,7 +33688,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H36" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J36" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N36" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q36" t="n">
         <v>34.25968340095294</v>
@@ -33761,7 +33761,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H37" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J37" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K37" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N37" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P37" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q37" t="n">
         <v>18.84141329424315</v>
@@ -33840,13 +33840,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T37" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,31 +33886,31 @@
         <v>0.5016183778293625</v>
       </c>
       <c r="H38" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944959</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J38" t="n">
         <v>42.57423279529489</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930718</v>
       </c>
       <c r="M38" t="n">
         <v>88.0797979860301</v>
       </c>
       <c r="N38" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203778</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749706</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q38" t="n">
         <v>54.1691415988206</v>
@@ -33962,25 +33962,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H39" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298812</v>
       </c>
       <c r="J39" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422263</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N39" t="n">
         <v>69.8036340706813</v>
@@ -33989,7 +33989,7 @@
         <v>63.85668792782759</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713473</v>
       </c>
       <c r="Q39" t="n">
         <v>34.25968340095294</v>
@@ -33998,7 +33998,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898145</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34047,7 +34047,7 @@
         <v>2.000532211678408</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J40" t="n">
         <v>15.908117597365</v>
@@ -34056,7 +34056,7 @@
         <v>26.14192399309819</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174711</v>
+        <v>33.4526623617471</v>
       </c>
       <c r="M40" t="n">
         <v>35.27114205109485</v>
@@ -34080,7 +34080,7 @@
         <v>3.921288598964728</v>
       </c>
       <c r="T40" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225469</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H41" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I41" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M41" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N41" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
@@ -34162,7 +34162,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H42" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J42" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N42" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q42" t="n">
         <v>34.25968340095294</v>
@@ -34235,7 +34235,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H43" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J43" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K43" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N43" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P43" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84141329424315</v>
@@ -34314,13 +34314,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T43" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H44" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M44" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N44" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
@@ -34399,7 +34399,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H45" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J45" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N45" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q45" t="n">
         <v>34.25968340095294</v>
@@ -34472,7 +34472,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H46" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J46" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K46" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N46" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P46" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q46" t="n">
         <v>18.84141329424315</v>
@@ -34551,13 +34551,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T46" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N11" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O11" t="n">
         <v>235.2190232985557</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K12" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5606228478076</v>
+        <v>210.8096911174891</v>
       </c>
       <c r="M12" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N12" t="n">
-        <v>350.2546540411925</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O12" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.2655385134049</v>
+        <v>54.26553851340489</v>
       </c>
       <c r="K13" t="n">
-        <v>135.589033199928</v>
+        <v>120.5276612791228</v>
       </c>
       <c r="L13" t="n">
         <v>192.7592886547759</v>
@@ -35583,10 +35583,10 @@
         <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
-        <v>73.82694220684388</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.39597107526144</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M14" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N14" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O14" t="n">
         <v>235.2190232985557</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N15" t="n">
-        <v>365.9739823579188</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O15" t="n">
-        <v>315.1227627601127</v>
+        <v>90.21188375474291</v>
       </c>
       <c r="P15" t="n">
         <v>235.7389829927417</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340484</v>
+        <v>54.26553851340475</v>
       </c>
       <c r="K16" t="n">
-        <v>120.5276612791238</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547759</v>
+        <v>177.6979167339735</v>
       </c>
       <c r="M16" t="n">
-        <v>74.85501901293543</v>
+        <v>206.571620045648</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399398</v>
+        <v>210.2812465399397</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377297</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851004</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526139</v>
+        <v>64.3959710752613</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M17" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N17" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O17" t="n">
-        <v>235.2190232985556</v>
+        <v>235.2190232985557</v>
       </c>
       <c r="P17" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9628154850614</v>
+        <v>155.5129594188052</v>
       </c>
       <c r="L18" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N18" t="n">
-        <v>245.899456990412</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q18" t="n">
         <v>104.3551970507805</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M19" t="n">
         <v>74.85501901293543</v>
@@ -36054,10 +36054,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N20" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O20" t="n">
         <v>235.2190232985557</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K21" t="n">
         <v>169.9628154850614</v>
@@ -36206,16 +36206,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>365.9739823579188</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O21" t="n">
-        <v>315.1227627601127</v>
+        <v>155.9880512624229</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>104.3551970507805</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M22" t="n">
         <v>74.85501901293543</v>
@@ -36291,10 +36291,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M23" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N23" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O23" t="n">
         <v>235.2190232985557</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427729</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K24" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>365.9739823579202</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>210.8096911174891</v>
       </c>
       <c r="P24" t="n">
         <v>235.7389829927417</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M25" t="n">
         <v>74.85501901293543</v>
@@ -36528,10 +36528,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.360211686809441</v>
+        <v>1.36021168680944</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.87243216721534</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M28" t="n">
         <v>224.8990792913874</v>
       </c>
       <c r="N28" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O28" t="n">
-        <v>206.4331501834691</v>
+        <v>141.8298616531958</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.74315404624804</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,10 +36841,10 @@
         <v>457.2911585300419</v>
       </c>
       <c r="N29" t="n">
-        <v>447.4829422958832</v>
+        <v>447.4829422958831</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770078</v>
+        <v>385.263083577007</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239709</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.610097631882894</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.62301225552082</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0867479005153</v>
+        <v>142.8049861649277</v>
       </c>
       <c r="M31" t="n">
         <v>74.85501901293543</v>
@@ -37002,7 +37002,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O31" t="n">
-        <v>147.8130855955248</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
         <v>174.5364033308399</v>
@@ -37084,13 +37084,13 @@
         <v>385.2630835770077</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494999</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q32" t="n">
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362605</v>
+        <v>31.68472776362604</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37209,10 +37209,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914423</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.87243216721534</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L34" t="n">
-        <v>211.0867479005153</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M34" t="n">
         <v>224.8990792913874</v>
       </c>
       <c r="N34" t="n">
-        <v>180.1190737595927</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>15.87025584565414</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M35" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515903</v>
       </c>
       <c r="N35" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O35" t="n">
         <v>235.2190232985557</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K36" t="n">
         <v>169.9628154850614</v>
@@ -37391,16 +37391,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>365.9739823579188</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O36" t="n">
-        <v>315.1227627601127</v>
+        <v>155.9880512624232</v>
       </c>
       <c r="P36" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>104.3551970507805</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M37" t="n">
         <v>74.85501901293543</v>
@@ -37476,10 +37476,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N38" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O38" t="n">
         <v>235.2190232985557</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
@@ -37631,16 +37631,16 @@
         <v>380.4238384241749</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241749</v>
+        <v>221.2891269264855</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>139.7936311020791</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215337</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206324</v>
       </c>
       <c r="M40" t="n">
         <v>74.85501901293543</v>
@@ -37713,10 +37713,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501705</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N41" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O41" t="n">
         <v>235.2190232985557</v>
@@ -37798,7 +37798,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>245.9473326314089</v>
+        <v>245.9473326314096</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K42" t="n">
         <v>169.9628154850614</v>
@@ -37868,13 +37868,13 @@
         <v>391.574806287336</v>
       </c>
       <c r="N42" t="n">
-        <v>417.8042963309015</v>
+        <v>280.5232633684967</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>123.0682800942628</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M43" t="n">
         <v>74.85501901293543</v>
@@ -37950,10 +37950,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>30.62494344068237</v>
       </c>
       <c r="K44" t="n">
-        <v>167.863300254996</v>
+        <v>369.6321905021297</v>
       </c>
       <c r="L44" t="n">
         <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N44" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O44" t="n">
         <v>235.2190232985557</v>
@@ -38035,7 +38035,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.9473326314089</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K45" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>48.92439283462245</v>
       </c>
       <c r="M45" t="n">
         <v>391.574806287336</v>
@@ -38111,10 +38111,10 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P45" t="n">
-        <v>123.0682800942628</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M46" t="n">
         <v>74.85501901293543</v>
@@ -38187,10 +38187,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
